--- a/biology/Botanique/Grande_Gentiane/Grande_Gentiane.xlsx
+++ b/biology/Botanique/Grande_Gentiane/Grande_Gentiane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Grande gentiane
-La Grande gentiane, Gentianopsis virgata, est une espèce de plantes herbacées bisannuelles de la famille des Gentianaceae[2] originaire de l'est des États-Unis et de l'est du Canada.
+La Grande gentiane, Gentianopsis virgata, est une espèce de plantes herbacées bisannuelles de la famille des Gentianaceae originaire de l'est des États-Unis et de l'est du Canada.
 Il ne faut pas confondre cette plante avec la Grande gentiane qui pousse en Europe, une plante à fleurs jaunes (Gentiana lutea).
 </t>
         </is>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,13 +553,15 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 juin 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 juin 2014) :
 sous-espèce Gentianopsis virgata subsp. victorinii
 sous-espèce Gentianopsis virgata subsp. virgata
-Selon Tropicos                                           (3 juin 2014)[4] (Attention liste brute contenant possiblement des synonymes) :
-sous-espèce Gentianopsis virgata subsp. macounii (Holm) J.S. Pringle ; gentiane de Macoun[5]
+Selon Tropicos                                           (3 juin 2014) (Attention liste brute contenant possiblement des synonymes) :
+sous-espèce Gentianopsis virgata subsp. macounii (Holm) J.S. Pringle ; gentiane de Macoun
 sous-espèce Gentianopsis virgata subsp. victorinii (Fernald) Lammers
 sous-espèce Gentianopsis virgata subsp. virgata</t>
         </is>
